--- a/views/exportaccount/_export_komponen_dinas.xlsx
+++ b/views/exportaccount/_export_komponen_dinas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\poa\views\exportaccount\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Xampp\htdocs\poa-simbok\views\exportaccount\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC08C98C-BBED-45B0-B7D5-0BDE8F97F8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078E05BB-AD29-434D-BBE1-659845299EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>KOMPONEN RINCIAN MENU 
-KEGIATAN</t>
-  </si>
-  <si>
     <t>KOMPONEN PEMBIAYAAN</t>
   </si>
   <si>
@@ -62,6 +58,9 @@
   </si>
   <si>
     <t>BENTUK KEGIATAN</t>
+  </si>
+  <si>
+    <t>KOMPONEN</t>
   </si>
 </sst>
 </file>
@@ -559,7 +558,7 @@
   <dimension ref="A2:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,23 +593,23 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -625,13 +624,13 @@
       <c r="T2" s="8"/>
       <c r="U2" s="9"/>
       <c r="V2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -640,10 +639,10 @@
       <c r="C3" s="5"/>
       <c r="D3" s="14"/>
       <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
